--- a/biology/Zoologie/Abelisauridae/Abelisauridae.xlsx
+++ b/biology/Zoologie/Abelisauridae/Abelisauridae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Abelisauridae (en français Abélisauridés) sont une famille éteinte de dinosaures théropodes.
 </t>
@@ -511,7 +523,9 @@
           <t>Historique et description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1985, deux paléontologues argentins, José Bonaparte et Fernando Novas, ont nommé Abelisaurus comahuensis (« lézard d'Abel ») un grand dinosaure carnivore, du nom de Roberto Abel qui l'avait découvert. Il ressemblait beaucoup à Ceratosaurus et les paléontologues pensèrent qu'il devait appartenir à un groupe jusque-là inconnu de Ceratosauria (« lézards cornus ») qu'ils ont donc appelé les Abélisauridae. Ceux-ci présentent des caractères particuliers, notamment le museau court et haut, portant une excroissance osseuse ou des cornes au-dessus des yeux.
 La plupart étaient de grands carnivores habitant les continents de l'hémisphère Sud au Crétacé. D'autres représentants du groupe furent découverts par la suite.
@@ -543,9 +557,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (5 juin 2016)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (5 juin 2016) :
 genre Abelisaurus Bonaparte &amp; Novas, 1985 †
 genre Aucasaurus Coria Chiappe &amp; Dingus, 2002 †
 genre Carnotaurus Bonaparte, 1985 †
@@ -561,7 +577,7 @@
 genre Skorpiovenator Canale &amp; al., 2009 †
 genre Spinostropheus Lapparent, 1960 †
 genre Xenotarsosaurus Martinez, Gimenez, Rodriguez &amp; Bochatey, 1987 †
-genre Tralkasaurus Cerroni et al.[3] †</t>
+genre Tralkasaurus Cerroni et al. †</t>
         </is>
       </c>
     </row>
@@ -589,7 +605,9 @@
           <t>Classification phylogénétique au sein des Noasauridae</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Position phylogénétique des Abelisauridae au sein des Noasauridae :
 </t>
@@ -620,9 +638,11 @@
           <t>Classification phylogénétique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Arcovenator, Majungasaurus, Rahiolisaurus, Rajasaurus et Indosaurus sont des taxons valides qui appartiendraient, selon les analyses phylogénétiques[4], à la nouvelle sous-famille des Majungasaurinae. Cette sous-famille aurait peuplé l'Europe, Madagascar et l'Inde contrairement aux Brachyrostra (Abelisaurus, Aucasaurus, Carnotaurus, Ekrixinatosaurus, Ilokelesia, Pycnonemosaurus, Quilmesaurus, et Skorpiovenator) qui occupaient l'Amérique du Sud[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Arcovenator, Majungasaurus, Rahiolisaurus, Rajasaurus et Indosaurus sont des taxons valides qui appartiendraient, selon les analyses phylogénétiques, à la nouvelle sous-famille des Majungasaurinae. Cette sous-famille aurait peuplé l'Europe, Madagascar et l'Inde contrairement aux Brachyrostra (Abelisaurus, Aucasaurus, Carnotaurus, Ekrixinatosaurus, Ilokelesia, Pycnonemosaurus, Quilmesaurus, et Skorpiovenator) qui occupaient l'Amérique du Sud.
 			Abelisaurus
 			Aucasaurus
 			Carnotaurus
